--- a/fupa documentos finales/Listado de requerimientos generales.xlsx
+++ b/fupa documentos finales/Listado de requerimientos generales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15270" windowHeight="7950"/>
+    <workbookView xWindow="120" yWindow="255" windowWidth="15270" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -134,12 +134,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -154,16 +154,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -174,15 +170,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -196,7 +214,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -206,69 +226,64 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -283,6 +298,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>230717</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1228725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1162050" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,7 +642,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,38 +654,43 @@
     <col min="6" max="6" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>90</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>14</v>
       </c>
       <c r="E3" s="4">
@@ -629,15 +701,15 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>80</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>3</v>
       </c>
       <c r="E4" s="4">
@@ -648,15 +720,15 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>90</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>11</v>
       </c>
       <c r="E5" s="4">
@@ -667,15 +739,15 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>75</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>3</v>
       </c>
       <c r="E6" s="4">
@@ -686,15 +758,15 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>97</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>16</v>
       </c>
       <c r="E7" s="4">
@@ -705,15 +777,15 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>90</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>8</v>
       </c>
       <c r="E8" s="4">
@@ -724,15 +796,15 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>82</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>8</v>
       </c>
       <c r="E9" s="4">
@@ -743,15 +815,15 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>100</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>21</v>
       </c>
       <c r="E10" s="4">
@@ -762,15 +834,15 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>95</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>4</v>
       </c>
       <c r="E11" s="4">
@@ -781,15 +853,15 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>85</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>6</v>
       </c>
       <c r="E12" s="4">
@@ -800,15 +872,15 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>95</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>4</v>
       </c>
       <c r="E13" s="4">
@@ -821,7 +893,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="4">
@@ -840,7 +912,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4">
@@ -859,7 +931,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="4">
@@ -897,7 +969,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4">
@@ -916,7 +988,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4">
@@ -935,7 +1007,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="4">
@@ -991,12 +1063,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="13">
         <f>SUM(F3:F22)</f>
         <v>172.79999999999998</v>
       </c>
@@ -1007,20 +1079,24 @@
         <f>SUM(D3:D22)</f>
         <v>144</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="14">
         <f>F23/20</f>
         <v>8.6399999999999988</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="18">
+      <c r="F25" s="15">
         <f>F24/4</f>
         <v>2.1599999999999997</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/fupa documentos finales/Listado de requerimientos generales.xlsx
+++ b/fupa documentos finales/Listado de requerimientos generales.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="255" windowWidth="15270" windowHeight="7830"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">Hoja1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Se podrá facturar a crédito y de contado.</t>
   </si>
@@ -97,13 +97,19 @@
   </si>
   <si>
     <t>Reporte de Estado de Cuenta</t>
+  </si>
+  <si>
+    <t>Total de horas estimado:</t>
+  </si>
+  <si>
+    <t>Total de horas estimadas con ajuste:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +126,19 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -236,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -262,15 +281,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,6 +295,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,10 +353,10 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -353,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,7 +459,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -462,7 +493,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,51 +668,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="95.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:6" ht="97.5" customHeight="1">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>12</v>
@@ -701,7 +732,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
         <v>22</v>
@@ -720,7 +751,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A5" s="6"/>
       <c r="B5" s="9" t="s">
         <v>21</v>
@@ -739,7 +770,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A6" s="6"/>
       <c r="B6" s="9" t="s">
         <v>24</v>
@@ -758,7 +789,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>13</v>
@@ -777,7 +808,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>15</v>
@@ -796,7 +827,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>16</v>
@@ -815,7 +846,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
@@ -834,7 +865,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
         <v>0</v>
@@ -853,7 +884,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
         <v>1</v>
@@ -872,7 +903,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="15.75">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
         <v>2</v>
@@ -891,7 +922,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="2"/>
       <c r="B14" s="8" t="s">
         <v>3</v>
@@ -910,7 +941,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="8" t="s">
         <v>4</v>
@@ -929,7 +960,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="2"/>
       <c r="B16" s="8" t="s">
         <v>5</v>
@@ -948,7 +979,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -967,7 +998,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
@@ -986,7 +1017,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
@@ -1005,7 +1036,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="8" t="s">
         <v>20</v>
@@ -1023,8 +1054,9 @@
         <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>25</v>
@@ -1043,7 +1075,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>23</v>
@@ -1062,37 +1094,38 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="46.5" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13">
+      <c r="C23" s="20"/>
+      <c r="D23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25">
         <f>SUM(F3:F22)</f>
         <v>172.79999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30.75" customHeight="1">
       <c r="B24" s="1"/>
-      <c r="D24">
+      <c r="C24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="21">
         <f>SUM(D3:D22)</f>
         <v>144</v>
       </c>
-      <c r="F24" s="14">
-        <f>F23/20</f>
-        <v>8.6399999999999988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="15">
-        <f>F24/4</f>
-        <v>2.1599999999999997</v>
-      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75">
+      <c r="F25" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1101,24 +1134,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
